--- a/data/trans_bre/APOYO_SOCIAL_DUKE_CONF_CAT-Clase-trans_bre.xlsx
+++ b/data/trans_bre/APOYO_SOCIAL_DUKE_CONF_CAT-Clase-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 12,71</t>
+          <t>-1,29; 11,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 5,37</t>
+          <t>-9,89; 5,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 18,85</t>
+          <t>-1,67; 17,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 10,78</t>
+          <t>-16,92; 10,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>-0,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 9,62</t>
+          <t>-7,92; 8,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 8,09</t>
+          <t>-7,58; 9,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 13,45</t>
+          <t>-10,04; 11,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 13,67</t>
+          <t>-11,06; 15,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 8,36</t>
+          <t>-6,96; 8,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 58,84</t>
+          <t>-5,8; 59,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 11,25</t>
+          <t>-8,67; 11,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 482,48</t>
+          <t>-8,32; 546,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>7,97</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 12,7</t>
+          <t>2,15; 14,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 2,4</t>
+          <t>-10,09; 2,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 17,97</t>
+          <t>2,98; 21,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 3,68</t>
+          <t>-14,09; 3,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,44</t>
+          <t>8,55</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,3; 16,67</t>
+          <t>1,72; 16,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 8,91</t>
+          <t>-34,28; 8,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,8; 23,09</t>
+          <t>2,05; 22,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-44,6; 13,66</t>
+          <t>-48,38; 12,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,83</t>
+          <t>8,87</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,84; 25,61</t>
+          <t>-3,02; 22,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,33; 31,43</t>
+          <t>4,79; 32,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,55; 50,96</t>
+          <t>-4,44; 40,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,44; 89,18</t>
+          <t>7,82; 91,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,02; 8,44</t>
+          <t>1,73; 7,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 24,63</t>
+          <t>-2,56; 28,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,01; 11,8</t>
+          <t>2,32; 10,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 61,74</t>
+          <t>-4,06; 76,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_bre/APOYO_SOCIAL_DUKE_CONF_CAT-Clase-trans_bre.xlsx
+++ b/data/trans_bre/APOYO_SOCIAL_DUKE_CONF_CAT-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-2,51</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-1,95</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>5,14</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,24</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,95</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-4,47%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-3,39%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>7,15%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-4,1%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-3,39%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-9,53; 5,22</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-8,21; 4,54</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-1,29; 11,58</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,89; 5,08</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,21; 4,54</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-15,95; 10,32</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-13,75; 8,25</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-1,67; 17,0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-16,92; 10,2</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-13,75; 8,25</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-2,16</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-2,19</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-0,38</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,19</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-3,3%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-3,49%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-0,49%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-3,49%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-9,64; 6,06</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-10,15; 4,81</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-7,92; 8,53</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,58; 9,41</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-10,15; 4,81</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-13,94; 10,36</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-15,11; 8,22</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-10,04; 11,68</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-11,06; 15,91</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-15,11; 8,22</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-4,41</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-4,96</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,07</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>32,14</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,96</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-6,46%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-8,15%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,38%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>96,79%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-8,15%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-14,55; 6,26</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-13,9; 5,78</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-6,96; 8,64</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,8; 59,12</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-13,9; 5,78</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-20,6; 9,56</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-22,56; 10,22</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-8,67; 11,49</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-8,32; 546,33</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-22,56; 10,22</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-3,47</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-1,36</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>7,97</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-3,8</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,36</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-4,98%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-2,22%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>10,76%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-5,56%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-2,22%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-9,89; 2,15</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-8,04; 4,48</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>2,15; 14,62</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-10,09; 2,23</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-8,04; 4,48</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-13,65; 3,2</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-12,43; 7,69</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>2,98; 21,19</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-14,09; 3,57</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-12,43; 7,69</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>6,84</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,82</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>8,55</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-5,85</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,82</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>10,67%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-8,7%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>7,69%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-0,63; 14,62</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 13,42</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>1,72; 16,35</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-34,28; 8,16</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,89; 13,42</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-0,77; 23,86</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-5,92; 23,38</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>2,05; 22,24</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-48,38; 12,14</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-5,92; 23,38</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>14,82</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>31,95</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>8,87</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>17,92</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>31,95</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>28,8%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>53,62%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>13,97%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>37,59%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>53,62%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>2,08; 27,84</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6,76; 62,49</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-3,02; 22,17</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>4,79; 32,01</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>6,76; 62,49</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>3,44; 68,73</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9,18; 207,6</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>-4,44; 40,28</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>7,82; 91,16</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>9,18; 207,6</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>4,74</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>6,84</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-0,97%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>6,35%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>12,35%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-0,97%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-2,24; 3,92</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-3,98; 2,84</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>1,73; 7,9</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 28,05</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,98; 2,84</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>-3,35; 6,27</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-6,37; 4,77</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>2,32; 10,92</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-4,06; 76,3</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-6,37; 4,77</t>
         </is>
       </c>
     </row>
